--- a/API_M/Api_Auto/API_L_A/API_L_A.xlsx
+++ b/API_M/Api_Auto/API_L_A/API_L_A.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\eclipse-workspace\01\API_M\Api_Auto\API_L_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558461D0-0350-476D-8165-9B4C886AC223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDF97B-8261-479B-99ED-93946EA24D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2580" yWindow="270" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="API_PI_AP_001" sheetId="1" r:id="rId1"/>
+    <sheet name="API_L_AP_001" sheetId="1" r:id="rId1"/>
+    <sheet name="API_L_AN_002" sheetId="2" r:id="rId2"/>
+    <sheet name="API_L_AN_003" sheetId="3" r:id="rId3"/>
+    <sheet name="API_L_AN_004" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Name Test Case</t>
   </si>
@@ -45,13 +48,31 @@
     <t>post</t>
   </si>
   <si>
-    <t>API_PI_AP_001</t>
-  </si>
-  <si>
-    <t>{"username":"IvanC"}</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>API_L_AP_001</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>{"username":"IvanC","password":"Hex4ware!!!"}</t>
+  </si>
+  <si>
+    <t>API_L_AN_002</t>
+  </si>
+  <si>
+    <t>{"username":"Ivan","password":"Hex4ware!!!"}</t>
+  </si>
+  <si>
+    <t>API_L_AN_003</t>
+  </si>
+  <si>
+    <t>{"username":"IvanC","password":"Hex4ware"}</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"Hex4ware"}</t>
+  </si>
+  <si>
+    <t>API_L_AN_004</t>
   </si>
 </sst>
 </file>
@@ -374,14 +395,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -409,17 +430,177 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD947BEB-4C54-4EAC-A09B-B7A314B1C365}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2315E2DC-5415-418B-8B60-F2803A62FD8D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51163953-EB0B-4B57-8A43-553E2440DD8F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API_M/Api_Auto/API_L_A/API_L_A.xlsx
+++ b/API_M/Api_Auto/API_L_A/API_L_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\eclipse-workspace\01\API_M\Api_Auto\API_L_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDF97B-8261-479B-99ED-93946EA24D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC2652-FB76-4BF9-9FF6-CCA9D0C2B992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_L_AP_001" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
